--- a/初始化.xlsx
+++ b/初始化.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pyproject\attend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B2E16D-2027-4A6D-B0AB-F27701CB7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E736DD-AB53-4D39-9C98-81AC38AAA73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学生" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21级人工智能2班</t>
+    <t>2班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>456987</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0535196-6653-4BC7-9A70-25A31580B055}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123321</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
